--- a/ozone/ANO-RCC-MB/ozone_136.00/ozone_136.00_energies.xlsx
+++ b/ozone/ANO-RCC-MB/ozone_136.00/ozone_136.00_energies.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1003715445</v>
+        <v>-0.1003714546</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-224.44727046</v>
+        <v>-224.44727037</v>
       </c>
     </row>
   </sheetData>
